--- a/homogeneous-snpsp-comment-resolution.xlsx
+++ b/homogeneous-snpsp-comment-resolution.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -38,6 +38,142 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewer #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One might find a few typos like "M . or M ," which could be better as "M. / M,".  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed the extra spaces. Changed “M .” to “M.” and “M ,” to “M,”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewer #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In "Abstract" section, "the mechanism of a spiking neuron" =&gt; "the mechanism of spiking neurons"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed "the mechanism of a spiking neuron" to "the mechanism of spiking neurons".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In "Abstract" section, "An SNP system is a network of neurons that ..."  =&gt; "An SNP system is a directed graph of neurons that ...". Usually, a network is a weighted graph, however, original SNP system has no weights on synapses, including SNPSP system discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed "An SNP system is a network of neurons that ..." to "An SNP system is a directed graph of neurons that ...".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suggest that the structure of this paper should be reorganized as follows:
+    -- SNPSP system is defined by Definition 1, and homogeneous SNPSP system is defined by Definition 2.
+    -- original subsection 3.1 is changed as "Modified forgetting rules".
+    -- original subsection 4.1 is moved to section 3.
+    -- original subsections 4.2 and 4.3 form the new section 4 to discuss the universality of HSNPSP systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reference is a bit old and should be updated by the reference for the last three years, including the papers in JMEC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewer #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to make the manuscript more compact, the authors can give a comparative study of homogeneous and non-homogeneous SNPS systems. More specifically, a study regarding the number of neurons required to obtain the computational universality in the framework of homogeneous and non-homogeneous system should be mentioned. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a problem that the number of references is too small. The standard of this journal is above 30, which is very important to indicate the significance and necessity of this work. Moreover, several papers published in this journal is also important to be references. For example, in Introduction section, some representative applications on spiking neural P systems should be mentioned and the corresponding publications should be cited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 8
+Line 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`` can be the same. i.e. In a system $\Pi$'' --$&gt;$  i.e. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 10
+Line 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$l_{i,3}, l_{i, 4}, r^{'}$  will have $z + 1$ spikes. ---$&gt;$ It implies that  in $l_{i,2}$, the $a^{y+2} / a^{2} \rightarrow a$ rule was applied.  Hence, the neuron $r$ receives $5$ spikes from $l_{i,3}, l_{i,4}, l_{i, 5}, l_{i, 6}$ and $r^{'}$ by using the rule $a^{z+1} / a \rightarrow a$. In that case, it will be incorrect to mention that ``This increments the number in register $r$ by $1$.'' Correct this properly.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In the situation described in the paragraph, neurons $l_{i,3}$ and $l_{i,4}$ will have z+1 and will use Rule 5: $a^{z+1}/a → a$ while neurons $l_{i,5}$ and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">$l_{i,6}$ will have z+2 spikes and will use Rule 6: $a^{z+2}/a^2 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">$. Only neurons $l_{i,3}$, $l_{i,4}$, and $r’$ will send a spike to neuron $r$ which means only 3 spikes (and not 5 spikes) will  be sent to neuron $r$ incrementing the number stored in register </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+Corrected the typograhic error in the paragraph. Changed ‘Rule 5’ to ‘Rule 6’. (Rule used by neurons  $l_{i,5}$ and $l_{i,6}$). The original paragraph incorrectly labels the rule as ‘Rule 5’ instead of ‘Rule 6’.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 14
+Line 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rephrase ``the first spike is already at neuron $in_1$ time $0$ then''.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rephrased ``the first spike is already at neuron $in_1$ time $0$ then …'' as ``that the first spike is in neuron $in_1$ at time 0 and … ''.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In reference [3], [14], [15], both doi and url have been mentioned. Mentioning both is not necessary. Only ``doi'' is sufficient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed URL from references (specially for references that already have DOI information available).</t>
   </si>
 </sst>
 </file>
@@ -47,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Nimbus Sans"/>
@@ -71,27 +207,50 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="CMU Serif"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="CMU Serif"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="CMU Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="CMU Serif"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -99,6 +258,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -125,21 +291,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -151,6 +349,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -161,22 +419,23 @@
   </sheetPr>
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D15:D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="92.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="89.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -193,163 +452,322 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="n">
+    <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="n">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="121.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
         <v>11</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
-        <v>12</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="n">
-        <v>13</v>
-      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
-        <v>14</v>
-      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
-        <v>15</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
-        <v>16</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
-        <v>17</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="n">
-        <v>18</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="n">
-        <v>19</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="n">
-        <v>21</v>
-      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="n">
-        <v>22</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="n">
-        <v>23</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="n">
-        <v>24</v>
-      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="n">
-        <v>25</v>
-      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="n">
-        <v>26</v>
-      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="n">
-        <v>27</v>
-      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="n">
-        <v>28</v>
-      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="n">
-        <v>29</v>
-      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="41" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Nimbus Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Nimbus Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/homogeneous-snpsp-comment-resolution.xlsx
+++ b/homogeneous-snpsp-comment-resolution.xlsx
@@ -111,34 +111,8 @@
         <sz val="10"/>
         <rFont val="CMU Serif"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">In the situation described in the paragraph, neurons $l_{i,3}$ and $l_{i,4}$ will have z+1 and will use Rule 5: $a^{z+1}/a → a$ while neurons $l_{i,5}$ and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="CMU Serif"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">$l_{i,6}$ will have z+2 spikes and will use Rule 6: $a^{z+2}/a^2 → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="CMU Serif"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="CMU Serif"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">$. Only neurons $l_{i,3}$, $l_{i,4}$, and $r’$ will send a spike to neuron $r$ which means only 3 spikes (and not 5 spikes) will  be sent to neuron $r$ incrementing the number stored in register </t>
+      <t xml:space="preserve">In the situation described in the paragraph, neurons $l_{i,3}$ and $l_{i,4}$ will have z+1 and will use Rule 5: $a^{z+1}/a → a$ while neurons $l_{i,5}$ and $l_{i,6}$ will have z+2 spikes and will use Rule 6: $a^{z+2}/a^2 → λ$. Only neurons $l_{i,3}$, $l_{i,4}$, and $r’$ will send a spike to neuron $r$ which means only 3 spikes (and not 5 spikes) will  be sent to neuron $r$ incrementing the number stored in register </t>
     </r>
     <r>
       <rPr>
@@ -156,7 +130,25 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">. 
-Corrected the typograhic error in the paragraph. Changed ‘Rule 5’ to ‘Rule 6’. (Rule used by neurons  $l_{i,5}$ and $l_{i,6}$). The original paragraph incorrectly labels the rule as ‘Rule 5’ instead of ‘Rule 6’.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="CMU Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Corrected the typograhic error in the paragraph. Changed ‘Rule 5’ to ‘Rule 6’. (Rule used by neurons  $l_{i,5}$ and $l_{i,6}$). The original paragraph incorrectly labels the rule as ‘Rule 5’ instead of ‘Rule 6’.</t>
     </r>
   </si>
   <si>
@@ -188,7 +180,6 @@
       <sz val="10"/>
       <name val="Nimbus Sans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,15 +198,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="CMU Serif"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="CMU Serif"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -230,7 +221,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +236,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,7 +309,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,12 +321,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -352,7 +353,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -369,7 +370,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -419,8 +420,8 @@
   </sheetPr>
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +594,7 @@
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -632,137 +633,137 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/homogeneous-snpsp-comment-resolution.xlsx
+++ b/homogeneous-snpsp-comment-resolution.xlsx
@@ -420,8 +420,8 @@
   </sheetPr>
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/homogeneous-snpsp-comment-resolution.xlsx
+++ b/homogeneous-snpsp-comment-resolution.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -74,19 +74,31 @@
     -- original subsections 4.2 and 4.3 form the new section 4 to discuss the universality of HSNPSP systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">Reorganized the sections as suggested.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bibliography</t>
   </si>
   <si>
     <t xml:space="preserve">The reference is a bit old and should be updated by the reference for the last three years, including the papers in JMEC.</t>
   </si>
   <si>
+    <t xml:space="preserve">Added additional references. Cited 3 papers from JMEC. Additional background paragraphs are added to Section 1 and the references added are cited in those paragraphs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reviewer #3</t>
   </si>
   <si>
     <t xml:space="preserve">In order to make the manuscript more compact, the authors can give a comparative study of homogeneous and non-homogeneous SNPS systems. More specifically, a study regarding the number of neurons required to obtain the computational universality in the framework of homogeneous and non-homogeneous system should be mentioned. </t>
   </si>
   <si>
+    <t xml:space="preserve">Added additional discussion paragraphs in Section 5 that discuss number of neurons in homogeneous and non-homogeneous systems.</t>
+  </si>
+  <si>
     <t xml:space="preserve">There is a problem that the number of references is too small. The standard of this journal is above 30, which is very important to indicate the significance and necessity of this work. Moreover, several papers published in this journal is also important to be references. For example, in Introduction section, some representative applications on spiking neural P systems should be mentioned and the corresponding publications should be cited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added additional references. Additional background paragraphs are added to Section 1 and the references added are cited in those paragraphs.</t>
   </si>
   <si>
     <t xml:space="preserve">Page 8
@@ -96,7 +108,23 @@
     <t xml:space="preserve">`` can be the same. i.e. In a system $\Pi$'' --$&gt;$  i.e. </t>
   </si>
   <si>
-    <t xml:space="preserve">?????</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rephrased the line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">`` can be the same. i.e. In a system $\Pi$''.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Page 10
@@ -111,6 +139,7 @@
         <sz val="10"/>
         <rFont val="CMU Serif"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">In the situation described in the paragraph, neurons $l_{i,3}$ and $l_{i,4}$ will have z+1 and will use Rule 5: $a^{z+1}/a → a$ while neurons $l_{i,5}$ and $l_{i,6}$ will have z+2 spikes and will use Rule 6: $a^{z+2}/a^2 → λ$. Only neurons $l_{i,3}$, $l_{i,4}$, and $r’$ will send a spike to neuron $r$ which means only 3 spikes (and not 5 spikes) will  be sent to neuron $r$ incrementing the number stored in register </t>
     </r>
@@ -120,6 +149,7 @@
         <sz val="10"/>
         <rFont val="CMU Serif"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">r</t>
     </r>
@@ -128,6 +158,7 @@
         <sz val="10"/>
         <rFont val="CMU Serif"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. 
 </t>
@@ -147,6 +178,7 @@
         <sz val="10"/>
         <rFont val="CMU Serif"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Corrected the typograhic error in the paragraph. Changed ‘Rule 5’ to ‘Rule 6’. (Rule used by neurons  $l_{i,5}$ and $l_{i,6}$). The original paragraph incorrectly labels the rule as ‘Rule 5’ instead of ‘Rule 6’.</t>
     </r>
@@ -175,11 +207,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Nimbus Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -211,14 +244,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="CMU Serif"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="CMU Serif"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -329,7 +369,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,15 +460,15 @@
   </sheetPr>
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="92.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="89.93"/>
@@ -517,9 +557,11 @@
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="n">
         <v>5</v>
       </c>
@@ -527,58 +569,64 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="121.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -586,16 +634,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -603,16 +651,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -620,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
